--- a/Datos/clasificacio_us_zones.xlsx
+++ b/Datos/clasificacio_us_zones.xlsx
@@ -11,7 +11,7 @@
     <sheet name="ChatGPT2024" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ChatGPT2024!$A$1:$K$55</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ChatGPT2024!$A$1:$L$55</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="119">
   <si>
     <t xml:space="preserve">Región</t>
   </si>
@@ -40,6 +40,9 @@
     <t xml:space="preserve">Greats &gt;1M</t>
   </si>
   <si>
+    <t xml:space="preserve">GreaterRegion</t>
+  </si>
+  <si>
     <t xml:space="preserve">Población (2015)</t>
   </si>
   <si>
@@ -103,9 +106,6 @@
     <t xml:space="preserve">California</t>
   </si>
   <si>
-    <t xml:space="preserve">GreaterRegion</t>
-  </si>
-  <si>
     <t xml:space="preserve">Estado</t>
   </si>
   <si>
@@ -356,6 +356,9 @@
   </si>
   <si>
     <t xml:space="preserve">Tampa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">great</t>
   </si>
   <si>
     <t xml:space="preserve">País (EE. UU.)</t>
@@ -392,6 +395,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -413,17 +417,20 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -431,6 +438,7 @@
       <color rgb="FFC9211E"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -475,40 +483,44 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -705,1856 +717,1978 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D57" activeCellId="0" sqref="D57"/>
+      <selection pane="bottomLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="31.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="42.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="31.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="22.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="42.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="n">
         <v>98000</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="n">
+      <c r="J2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="n">
         <v>498000</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>11</v>
+      <c r="H3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5" t="n">
         <v>2800000</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="n">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="n">
         <f aca="false">C4</f>
         <v>2800000</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>235000</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>675000</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="H6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>235000</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>675000</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="5" t="n">
         <v>1130000</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="n">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="n">
         <f aca="false">C7</f>
         <v>1130000</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>11</v>
+      <c r="F7" s="5"/>
+      <c r="G7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="B8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="n">
         <v>39500000</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="n">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="n">
         <f aca="false">C8</f>
         <v>39500000</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="5" t="n">
+        <f aca="false">E8</f>
+        <v>39500000</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4" t="n">
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5" t="n">
         <v>900000</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>11</v>
+      <c r="L9" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="n">
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="n">
         <v>2700000</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="n">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="n">
         <f aca="false">C10</f>
         <v>2700000</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="5" t="n">
         <v>2200000</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="n">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="n">
         <f aca="false">C11</f>
         <v>2200000</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="L11" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="4" t="n">
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="n">
         <v>900000</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>11</v>
+      <c r="L12" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="4" t="n">
+      <c r="B13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="5" t="n">
         <v>7500000</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="n">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="n">
         <f aca="false">C13</f>
         <v>7500000</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="5" t="n">
+        <f aca="false">E13</f>
+        <v>7500000</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>735000</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>670000</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="4" t="n">
-        <v>735000</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="4" t="n">
-        <v>670000</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="L15" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="4" t="n">
+      <c r="B16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="5" t="n">
         <v>200000</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="3" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>11</v>
+      <c r="L16" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="4" t="n">
+      <c r="B17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5" t="n">
         <v>12000000</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4" t="n">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="n">
         <f aca="false">C17</f>
         <v>12000000</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="5" t="n">
+        <f aca="false">E17</f>
+        <v>12000000</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="L17" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="4" t="n">
+      <c r="B18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="5" t="n">
         <v>650000</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="3" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>11</v>
+      <c r="L18" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="n">
+      <c r="B19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5" t="n">
         <v>1200000</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="n">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="n">
         <f aca="false">C19</f>
         <v>1200000</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="3" t="s">
+      <c r="F19" s="5"/>
+      <c r="G19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>11</v>
+      <c r="L19" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="4" t="n">
+      <c r="B20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="5" t="n">
         <v>2300000</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4" t="n">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="n">
         <f aca="false">C20</f>
         <v>2300000</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>890000</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>920000</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>650000</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="4" t="n">
-        <v>890000</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="4" t="n">
-        <v>920000</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="4" t="n">
-        <v>650000</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>11</v>
+      <c r="L23" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="4" t="n">
+      <c r="B24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="5" t="n">
         <v>3900000</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4" t="n">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="n">
         <f aca="false">C24</f>
         <v>3900000</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="3" t="s">
+      <c r="F24" s="5"/>
+      <c r="G24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="L24" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="4" t="n">
+      <c r="B25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="5" t="n">
         <v>620000</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="3" t="s">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K25" s="3" t="s">
-        <v>11</v>
+      <c r="L25" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="4" t="n">
+      <c r="B26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="5" t="n">
         <v>6200000</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4" t="n">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5" t="n">
         <f aca="false">C26</f>
         <v>6200000</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="3" t="s">
+      <c r="F26" s="5"/>
+      <c r="G26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>11</v>
+      <c r="L26" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="4" t="n">
+      <c r="B27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="5" t="n">
         <v>12000000</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4" t="n">
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="n">
         <f aca="false">C27</f>
         <v>12000000</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="5" t="n">
+        <f aca="false">E27</f>
+        <v>12000000</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="J27" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="L27" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
+    <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="4" t="n">
+      <c r="B28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="5" t="n">
         <v>700000</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="3" t="s">
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K28" s="3" t="s">
-        <v>11</v>
+      <c r="L28" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="4" t="n">
+      <c r="B29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="5" t="n">
         <v>1300000</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4" t="n">
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="n">
         <f aca="false">C29</f>
         <v>1300000</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="F29" s="5"/>
+      <c r="G29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>11</v>
+      <c r="L29" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="4" t="n">
+      <c r="B30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="5" t="n">
         <v>8300000</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4" t="n">
+      <c r="D30" s="5"/>
+      <c r="E30" s="5" t="n">
         <f aca="false">C30</f>
         <v>8300000</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="3" t="s">
+      <c r="F30" s="5" t="n">
+        <f aca="false">E30</f>
+        <v>8300000</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K30" s="3" t="s">
-        <v>11</v>
+      <c r="L30" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="4" t="n">
+      <c r="B31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="5" t="n">
         <v>55000000</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4" t="n">
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="n">
         <f aca="false">C31</f>
         <v>55000000</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="5" t="n">
+        <f aca="false">E31</f>
+        <v>55000000</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="H31" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="I31" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="J31" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="K31" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="L31" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="4" t="n">
+      <c r="B32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="5" t="n">
         <v>1800000</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4" t="n">
+      <c r="D32" s="5"/>
+      <c r="E32" s="5" t="n">
         <f aca="false">C32</f>
         <v>1800000</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="5"/>
+      <c r="G32" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="H32" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="I32" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="J32" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="K32" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="L32" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
+    <row r="33" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="4" t="n">
+      <c r="B33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="5" t="n">
         <v>300000</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="3" t="s">
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J33" s="3" t="s">
+      <c r="J33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>11</v>
+      <c r="L33" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="4" t="n">
+      <c r="B34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="5" t="n">
         <v>1600000</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4" t="n">
+      <c r="D34" s="5"/>
+      <c r="E34" s="5" t="n">
         <f aca="false">C34</f>
         <v>1600000</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="3" t="s">
+      <c r="F34" s="5"/>
+      <c r="G34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J34" s="3" t="s">
+      <c r="J34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K34" s="3" t="s">
-        <v>11</v>
+      <c r="L34" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="4" t="n">
+      <c r="B35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="5" t="n">
         <v>5000000</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4" t="n">
+      <c r="D35" s="5"/>
+      <c r="E35" s="5" t="n">
         <f aca="false">C35</f>
         <v>5000000</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="5"/>
+      <c r="G35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>300000</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="4" t="n">
-        <v>300000</v>
-      </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I36" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36" s="3" t="s">
+      <c r="J36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="K36" s="3" t="s">
-        <v>11</v>
+      <c r="L36" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="4" t="n">
+      <c r="B37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="5" t="n">
         <v>8000000</v>
       </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4" t="n">
+      <c r="D37" s="5"/>
+      <c r="E37" s="5" t="n">
         <f aca="false">C37</f>
         <v>8000000</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="5" t="n">
+        <f aca="false">E37</f>
+        <v>8000000</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="H37" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="I37" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="J37" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="K37" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="L37" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
+    <row r="38" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="4" t="n">
+      <c r="B38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="5" t="n">
         <v>650000</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="3" t="s">
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J38" s="3" t="s">
+      <c r="J38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K38" s="3" t="s">
-        <v>11</v>
+      <c r="L38" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="4" t="n">
+      <c r="B39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="5" t="n">
         <v>1400000</v>
       </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4" t="n">
+      <c r="D39" s="5"/>
+      <c r="E39" s="5" t="n">
         <f aca="false">C39</f>
         <v>1400000</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>11</v>
+      <c r="F39" s="5"/>
+      <c r="G39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="4" t="n">
+      <c r="B40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="5" t="n">
         <v>1300000</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4" t="n">
+      <c r="D40" s="5"/>
+      <c r="E40" s="5" t="n">
         <f aca="false">C40</f>
         <v>1300000</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" s="3" t="s">
+      <c r="F40" s="5"/>
+      <c r="G40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I40" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J40" s="3" t="s">
+      <c r="J40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="K40" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
+      <c r="L40" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="4" t="n">
+      <c r="B41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="5" t="n">
         <v>100000</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H41" s="3" t="s">
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J41" s="3" t="s">
+      <c r="J41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
+      <c r="L41" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="4" t="n">
+      <c r="B42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="5" t="n">
         <v>500000</v>
       </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" s="3" t="s">
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J42" s="3" t="s">
+      <c r="J42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>11</v>
+      <c r="L42" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="4" t="n">
+      <c r="B43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="5" t="n">
         <v>1400000</v>
       </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4" t="n">
+      <c r="D43" s="5"/>
+      <c r="E43" s="5" t="n">
         <f aca="false">C43</f>
         <v>1400000</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="3" t="s">
+      <c r="F43" s="5"/>
+      <c r="G43" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="J43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="5" t="n">
+        <v>870000</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="4" t="n">
-        <v>870000</v>
-      </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="3" t="s">
+      <c r="H44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="5" t="n">
+        <v>750000</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="4" t="n">
-        <v>750000</v>
-      </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J45" s="3" t="s">
+      <c r="J45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>11</v>
+      <c r="L45" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="4" t="n">
+      <c r="C46" s="5" t="n">
         <v>5100000</v>
       </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4" t="n">
+      <c r="D46" s="5"/>
+      <c r="E46" s="5" t="n">
         <f aca="false">C46</f>
         <v>5100000</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="5"/>
+      <c r="G46" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="H46" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="I46" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="J46" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="K46" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="K46" s="3" t="s">
+      <c r="L46" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="4" t="n">
+      <c r="B47" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="5" t="n">
         <v>12000000</v>
       </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4" t="n">
+      <c r="D47" s="5"/>
+      <c r="E47" s="5" t="n">
         <f aca="false">C47</f>
         <v>12000000</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="5" t="n">
+        <f aca="false">E47</f>
+        <v>12000000</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="H47" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="I47" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="J47" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="K47" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="L47" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C48" s="4" t="n">
+      <c r="B48" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="5" t="n">
         <v>20000000</v>
       </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4" t="n">
+      <c r="D48" s="5"/>
+      <c r="E48" s="5" t="n">
         <f aca="false">C48</f>
         <v>20000000</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="5" t="n">
+        <f aca="false">E48</f>
+        <v>20000000</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="H48" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="I48" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="J48" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="K48" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="L48" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
+    <row r="49" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="4" t="n">
+      <c r="B49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="5" t="n">
         <v>230000</v>
       </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H49" s="3" t="s">
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J49" s="3" t="s">
+      <c r="J49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="s">
+      <c r="L49" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="4" t="n">
+      <c r="B50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="5" t="n">
         <v>300000</v>
       </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="3" t="s">
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="J50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="5" t="n">
+        <v>140000</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="5" t="n">
+        <v>400000</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J50" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="4" t="n">
-        <v>140000</v>
-      </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="4" t="n">
-        <v>400000</v>
-      </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" s="3" t="s">
+      <c r="H52" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J52" s="3" t="s">
+      <c r="J52" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K52" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="s">
+      <c r="L52" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="4" t="n">
+      <c r="C53" s="5" t="n">
         <v>331000000</v>
       </c>
-      <c r="D53" s="4" t="n">
+      <c r="D53" s="5" t="n">
         <v>331000000</v>
       </c>
-      <c r="E53" s="4"/>
-      <c r="F53" s="3" t="s">
+      <c r="E53" s="5"/>
+      <c r="F53" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G53" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H53" s="3" t="s">
+      <c r="G53" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="I53" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="J53" s="3" t="s">
+      <c r="H53" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="K53" s="3" t="s">
-        <v>11</v>
+      <c r="I53" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C54" s="4" t="n">
+      <c r="A54" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="5" t="n">
         <v>78000000</v>
       </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4" t="n">
+      <c r="D54" s="5"/>
+      <c r="E54" s="5" t="n">
         <f aca="false">C54</f>
         <v>78000000</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="5" t="n">
+        <f aca="false">E54</f>
+        <v>78000000</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="H54" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="I54" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="J54" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J54" s="3" t="s">
+      <c r="K54" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>114</v>
+      <c r="L54" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" s="4" t="n">
+      <c r="A55" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="5" t="n">
         <v>1800000</v>
       </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4" t="n">
+      <c r="D55" s="5"/>
+      <c r="E55" s="5" t="n">
         <f aca="false">C55</f>
         <v>1800000</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="5"/>
+      <c r="G55" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="H55" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="I55" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="J55" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J55" s="3" t="s">
+      <c r="K55" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K55" s="3" t="s">
-        <v>116</v>
+      <c r="L55" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C57" s="7" t="n">
+      <c r="A57" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="8" t="n">
         <f aca="false">SUM(C2:C55)</f>
         <v>640311000</v>
       </c>
-      <c r="D57" s="8" t="n">
+      <c r="D57" s="9" t="n">
         <f aca="false">SUM(D2:D55)</f>
         <v>331000000</v>
       </c>
-      <c r="E57" s="8" t="n">
+      <c r="E57" s="9" t="n">
         <f aca="false">SUM(E2:E55)</f>
         <v>295430000</v>
       </c>
+      <c r="F57" s="9" t="n">
+        <f aca="false">SUM(F2:F55)</f>
+        <v>252300000</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K55"/>
+  <autoFilter ref="A1:L55">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="1.130.000"/>
+        <filter val="1.200.000"/>
+        <filter val="1.300.000"/>
+        <filter val="1.400.000"/>
+        <filter val="1.600.000"/>
+        <filter val="1.800.000"/>
+        <filter val="12.000.000"/>
+        <filter val="2.200.000"/>
+        <filter val="2.300.000"/>
+        <filter val="2.700.000"/>
+        <filter val="2.800.000"/>
+        <filter val="20.000.000"/>
+        <filter val="3.900.000"/>
+        <filter val="39.500.000"/>
+        <filter val="5.000.000"/>
+        <filter val="5.100.000"/>
+        <filter val="55.000.000"/>
+        <filter val="6.200.000"/>
+        <filter val="7.500.000"/>
+        <filter val="78.000.000"/>
+        <filter val="8.000.000"/>
+        <filter val="8.300.000"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
